--- a/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos.xlsx
+++ b/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos.xlsx
@@ -69,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="%d-%m-%Y %H:%M:%S"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>

--- a/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos.xlsx
+++ b/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos.xlsx
@@ -69,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="%d-%m-%Y %H:%M:%S"/>
   </numFmts>
   <fonts count="2">
     <font>

--- a/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos.xlsx
+++ b/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\OneDrive\Documents\The_MechaBible\p_Python_ESP\1.-Data Science\0.-Archivos_Ejercicios_Python\23.-GUI PyQt5 Conexion DataBase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E546FC4-7E65-4629-92C2-B20B927DF5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>tituloStatic</t>
   </si>
@@ -62,16 +68,25 @@
   </si>
   <si>
     <t>Equipo veterano da un gran espectaculo</t>
+  </si>
+  <si>
+    <t>23-05-2022</t>
+  </si>
+  <si>
+    <t>10-10-2028</t>
+  </si>
+  <si>
+    <t>09-09-2024</t>
+  </si>
+  <si>
+    <t>01-12-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="%d-%m-%Y %H:%M:%S"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,12 +143,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD3D3D3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -148,29 +177,23 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD3D3D3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -208,7 +231,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -242,6 +265,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -276,9 +300,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -451,14 +476,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -492,7 +526,7 @@
         <v>47128</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -509,7 +543,7 @@
         <v>47578</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -522,11 +556,11 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
-        <v>44704</v>
+      <c r="E4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -539,11 +573,11 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2">
-        <v>47036</v>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -556,11 +590,11 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2">
-        <v>45544</v>
+      <c r="E6" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -573,39 +607,29 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2">
-        <v>45261</v>
+      <c r="E7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A7">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A7">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B2:B7">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C7">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+  <conditionalFormatting sqref="C2:E7">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
       <formula>LEN(TRIM(C2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D7">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="5">
-      <formula>LEN(TRIM(D2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E7">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="6">
-      <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos.xlsx
+++ b/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\OneDrive\Documents\The_MechaBible\p_Python_ESP\1.-Data Science\0.-Archivos_Ejercicios_Python\23.-GUI PyQt5 Conexion DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E546FC4-7E65-4629-92C2-B20B927DF5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4845FA01-DC87-4574-8EC2-29B51A3DCDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>tituloStatic</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Equipo veterano da un gran espectaculo</t>
+  </si>
+  <si>
+    <t>10-01-2029</t>
+  </si>
+  <si>
+    <t>05-04-2030</t>
   </si>
   <si>
     <t>23-05-2022</t>
@@ -138,12 +144,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,9 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -522,8 +525,8 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
-        <v>47128</v>
+      <c r="E2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -539,8 +542,8 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2">
-        <v>47578</v>
+      <c r="E3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -557,7 +560,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -574,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -591,7 +594,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -608,7 +611,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos.xlsx
+++ b/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\OneDrive\Documents\The_MechaBible\p_Python_ESP\1.-Data Science\0.-Archivos_Ejercicios_Python\23.-GUI PyQt5 Conexion DataBase\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4845FA01-DC87-4574-8EC2-29B51A3DCDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -91,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,7 +151,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -171,34 +172,19 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -236,7 +222,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -270,7 +256,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -305,10 +290,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -481,21 +465,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -529,7 +506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -546,7 +523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -563,7 +540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -580,7 +557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -597,7 +574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -615,24 +592,34 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:E1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A2:A7">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E1">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B2:B7">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:E7">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
+  <conditionalFormatting sqref="C2:C7">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(C2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D7">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="5">
+      <formula>LEN(TRIM(D2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="6">
+      <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos.xlsx
+++ b/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos.xlsx
@@ -1,34 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\OneDrive\Documents\The_MechaBible\p_Python_ESP\1.-Data Science\0.-Archivos_Ejercicios_Python\23.-GUI PyQt5 Conexion DataBase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A42313-290B-42F3-BD82-61C2C68ECD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
-    <t>tituloStatic</t>
-  </si>
-  <si>
-    <t>contentStatus</t>
-  </si>
-  <si>
-    <t>datoStatic</t>
-  </si>
-  <si>
-    <t>titulo</t>
-  </si>
-  <si>
-    <t>fecha_publicacion</t>
+    <t>Titulo Static</t>
+  </si>
+  <si>
+    <t>Content Status</t>
+  </si>
+  <si>
+    <t>Dato Static</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Fecha de Publicacion</t>
   </si>
   <si>
     <t>Grupo de Datos 1</t>
@@ -85,8 +91,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,14 +157,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -172,19 +171,34 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -222,7 +236,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -256,6 +270,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -290,9 +305,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -465,14 +481,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -506,7 +529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -523,7 +546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -540,7 +563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -557,7 +580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -574,7 +597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -592,34 +615,24 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A7">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A7">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B2:B7">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C7">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+  <conditionalFormatting sqref="C2:E7">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
       <formula>LEN(TRIM(C2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D7">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="5">
-      <formula>LEN(TRIM(D2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E7">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="6">
-      <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos.xlsx
+++ b/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\OneDrive\Documents\The_MechaBible\p_Python_ESP\1.-Data Science\0.-Archivos_Ejercicios_Python\23.-GUI PyQt5 Conexion DataBase\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A42313-290B-42F3-BD82-61C2C68ECD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -91,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,7 +151,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -171,34 +172,19 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -236,7 +222,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -270,7 +256,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -305,10 +290,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -481,21 +465,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -529,7 +506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -546,7 +523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -563,7 +540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -580,7 +557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -597,7 +574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -615,24 +592,34 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:E1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A2:A7">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E1">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B2:B7">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:E7">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
+  <conditionalFormatting sqref="C2:C7">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(C2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D7">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="5">
+      <formula>LEN(TRIM(D2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="6">
+      <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos.xlsx
+++ b/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Titulo Static</t>
   </si>
@@ -62,30 +62,15 @@
   </si>
   <si>
     <t>Equipo veterano da un gran espectaculo</t>
-  </si>
-  <si>
-    <t>10-01-2029</t>
-  </si>
-  <si>
-    <t>05-04-2030</t>
-  </si>
-  <si>
-    <t>23-05-2022</t>
-  </si>
-  <si>
-    <t>10-10-2028</t>
-  </si>
-  <si>
-    <t>09-09-2024</t>
-  </si>
-  <si>
-    <t>01-12-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -138,11 +123,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,8 +488,8 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
+      <c r="E2" s="2">
+        <v>47128</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -519,8 +505,8 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
+      <c r="E3" s="2">
+        <v>47578</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -536,8 +522,8 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
+      <c r="E4" s="2">
+        <v>44704</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -553,8 +539,8 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
+      <c r="E5" s="2">
+        <v>47036</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -570,8 +556,8 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
-        <v>20</v>
+      <c r="E6" s="2">
+        <v>45544</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -587,8 +573,8 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
+      <c r="E7" s="2">
+        <v>45261</v>
       </c>
     </row>
   </sheetData>

--- a/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos.xlsx
+++ b/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Titulo Static</t>
   </si>
@@ -62,15 +62,30 @@
   </si>
   <si>
     <t>Equipo veterano da un gran espectaculo</t>
+  </si>
+  <si>
+    <t>10-01-2029</t>
+  </si>
+  <si>
+    <t>05-04-2030</t>
+  </si>
+  <si>
+    <t>23-05-2022</t>
+  </si>
+  <si>
+    <t>10-10-2028</t>
+  </si>
+  <si>
+    <t>09-09-2024</t>
+  </si>
+  <si>
+    <t>01-12-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -123,12 +138,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,8 +502,8 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
-        <v>47128</v>
+      <c r="E2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -505,8 +519,8 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2">
-        <v>47578</v>
+      <c r="E3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -522,8 +536,8 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
-        <v>44704</v>
+      <c r="E4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -539,8 +553,8 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2">
-        <v>47036</v>
+      <c r="E5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -556,8 +570,8 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2">
-        <v>45544</v>
+      <c r="E6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -573,8 +587,8 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2">
-        <v>45261</v>
+      <c r="E7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
